--- a/doc/TFFSportsData.xlsx
+++ b/doc/TFFSportsData.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19020" windowHeight="8325" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19020" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
-    <sheet name="Team" sheetId="2" r:id="rId2"/>
-    <sheet name="TeamXML" sheetId="7" r:id="rId3"/>
-    <sheet name="PlaceType" sheetId="3" r:id="rId4"/>
-    <sheet name="SportType" sheetId="4" r:id="rId5"/>
-    <sheet name="PlacesXML" sheetId="5" r:id="rId6"/>
+    <sheet name="PTT 1.Lig" sheetId="8" r:id="rId2"/>
+    <sheet name="Super Lig Team" sheetId="2" r:id="rId3"/>
+    <sheet name="TeamXML" sheetId="7" r:id="rId4"/>
+    <sheet name="PlaceType" sheetId="3" r:id="rId5"/>
+    <sheet name="SportType" sheetId="4" r:id="rId6"/>
+    <sheet name="PlacesXML" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -853,13 +854,220 @@
   </si>
   <si>
     <t>" region="</t>
+  </si>
+  <si>
+    <t>5082</t>
+  </si>
+  <si>
+    <t>1461 TRABZON</t>
+  </si>
+  <si>
+    <t>011624</t>
+  </si>
+  <si>
+    <t>www.1461trabzon.com.tr</t>
+  </si>
+  <si>
+    <t>011624_120x120.jpg</t>
+  </si>
+  <si>
+    <t>000161_120x120.jpg</t>
+  </si>
+  <si>
+    <t>000161</t>
+  </si>
+  <si>
+    <t>3603</t>
+  </si>
+  <si>
+    <t>ADANA DEMİRSPOR</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>www.adanademirsporkulubu.org.tr</t>
+  </si>
+  <si>
+    <t>5 OCAK</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1_800_600_1.jpg, 1_800_600_2.jpg, 1_800_600_3.jpg</t>
+  </si>
+  <si>
+    <t>36.998855</t>
+  </si>
+  <si>
+    <t>35.329733</t>
+  </si>
+  <si>
+    <t>Reşatbey Mh., 01220</t>
+  </si>
+  <si>
+    <t>000163</t>
+  </si>
+  <si>
+    <t>3605</t>
+  </si>
+  <si>
+    <t>ADANASPOR A.Ş.</t>
+  </si>
+  <si>
+    <t>000163_120x120.jpg</t>
+  </si>
+  <si>
+    <t>000151</t>
+  </si>
+  <si>
+    <t>3593</t>
+  </si>
+  <si>
+    <t>BOLUSPOR</t>
+  </si>
+  <si>
+    <t>000151_120x120.jpg</t>
+  </si>
+  <si>
+    <t>BOLU ATATÜRK</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>40.73617</t>
+  </si>
+  <si>
+    <t>31.60692</t>
+  </si>
+  <si>
+    <t>İhsaniye Mh., 14100</t>
+  </si>
+  <si>
+    <t>www.boluspor.org.tr</t>
+  </si>
+  <si>
+    <t>42_800_600_1.jpg</t>
+  </si>
+  <si>
+    <t>000109</t>
+  </si>
+  <si>
+    <t>BUCASPOR</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>www.bucaspor.org.tr</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>İZMİR</t>
+  </si>
+  <si>
+    <t>000109_120x120.jpg</t>
+  </si>
+  <si>
+    <t>YENİ BUCA STADI</t>
+  </si>
+  <si>
+    <t>3753</t>
+  </si>
+  <si>
+    <t>3753_800_600_1.jpg, 3753_800_600_2.jpg</t>
+  </si>
+  <si>
+    <t>38.384115</t>
+  </si>
+  <si>
+    <t>27.169602</t>
+  </si>
+  <si>
+    <t>Vali Rahmi Bey Mh., 35380</t>
+  </si>
+  <si>
+    <t>000189</t>
+  </si>
+  <si>
+    <t>3631</t>
+  </si>
+  <si>
+    <t>ÇAYKUR RİZESPOR A.Ş.</t>
+  </si>
+  <si>
+    <t>www.caykurrizespor.org.tr</t>
+  </si>
+  <si>
+    <t>000189_120x120.jpg</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>YENİ RİZE ŞEHİR</t>
+  </si>
+  <si>
+    <t>3809</t>
+  </si>
+  <si>
+    <t>3809_800_600_1.jpg</t>
+  </si>
+  <si>
+    <t>41.0418796</t>
+  </si>
+  <si>
+    <t>40.5732393</t>
+  </si>
+  <si>
+    <t>GÜNDOĞDU</t>
+  </si>
+  <si>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>DENİZLİSPOR</t>
+  </si>
+  <si>
+    <t>000080_120x120.jpg</t>
+  </si>
+  <si>
+    <t>www.denizlispor.org.tr</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>DENİZLİ ATATÜRK</t>
+  </si>
+  <si>
+    <t>37.765985</t>
+  </si>
+  <si>
+    <t>29.082296</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Kuşpınar Mah. 20254</t>
+  </si>
+  <si>
+    <t>55_800_600_1.jpg, 55_800_600_2.jpg</t>
+  </si>
+  <si>
+    <t>www.adanaspor.com.tr/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +1106,20 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="3">
@@ -945,7 +1167,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -985,6 +1207,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1964,6 +2190,169 @@
         <v>5</v>
       </c>
     </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I20" s="20">
+        <v>14085</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I21" s="20">
+        <v>8881</v>
+      </c>
+      <c r="J21" s="3">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="20">
+        <v>8810</v>
+      </c>
+      <c r="J22" s="3">
+        <v>35</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I23" s="20">
+        <v>15485</v>
+      </c>
+      <c r="J23" s="3">
+        <v>53</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I24" s="20">
+        <v>15427</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1971,6 +2360,431 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="21">
+        <v>14</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="http://www.1461trabzon.com.tr/"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3605"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3593"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5" display="http://www.bucaspor.org.tr/"/>
+    <hyperlink ref="G7" r:id="rId6" display="http://www.caykurrizespor.org.tr/"/>
+    <hyperlink ref="D8" r:id="rId7" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=81"/>
+    <hyperlink ref="G8" r:id="rId8" display="http://www.denizlispor.org.tr/"/>
+    <hyperlink ref="G4" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -2631,11 +3445,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Q1" sqref="A1:W18"/>
     </sheetView>
   </sheetViews>
@@ -3969,7 +4783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C3"/>
   <sheetViews>
@@ -4011,7 +4825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C3"/>
   <sheetViews>
@@ -4053,7 +4867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W18"/>
   <sheetViews>

--- a/doc/TFFSportsData.xlsx
+++ b/doc/TFFSportsData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19020" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19020" windowHeight="8325" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
     <sheet name="PTT 1.Lig" sheetId="8" r:id="rId2"/>
-    <sheet name="Super Lig Team" sheetId="2" r:id="rId3"/>
+    <sheet name="TFF Teams" sheetId="2" r:id="rId3"/>
     <sheet name="TeamXML" sheetId="7" r:id="rId4"/>
     <sheet name="PlaceType" sheetId="3" r:id="rId5"/>
     <sheet name="SportType" sheetId="4" r:id="rId6"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="459">
   <si>
     <t>Name</t>
   </si>
@@ -850,9 +850,6 @@
     <t>" website="</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>" region="</t>
   </si>
   <si>
@@ -1061,13 +1058,352 @@
   </si>
   <si>
     <t>www.adanaspor.com.tr/</t>
+  </si>
+  <si>
+    <t>000251</t>
+  </si>
+  <si>
+    <t>3672</t>
+  </si>
+  <si>
+    <t>GAZİANTEP B.Ş. BLD.SPOR</t>
+  </si>
+  <si>
+    <t>000251_120x120.jpg</t>
+  </si>
+  <si>
+    <t>www.gaziantepbbspor.com</t>
+  </si>
+  <si>
+    <t>000269</t>
+  </si>
+  <si>
+    <t>3688</t>
+  </si>
+  <si>
+    <t>GÖZTEPE A.Ş.</t>
+  </si>
+  <si>
+    <t>www.goztepe.org.tr</t>
+  </si>
+  <si>
+    <t>000269_120x120.jpg</t>
+  </si>
+  <si>
+    <t>İZMİR ATATÜRK</t>
+  </si>
+  <si>
+    <t>118_800_600_1.jpg, 118_800_600_2.jpg</t>
+  </si>
+  <si>
+    <t>38.433144</t>
+  </si>
+  <si>
+    <t>27.176912</t>
+  </si>
+  <si>
+    <t>Mersinli Mh., 35100 Konak</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>000156</t>
+  </si>
+  <si>
+    <t>3598</t>
+  </si>
+  <si>
+    <t>KARŞIYAKA</t>
+  </si>
+  <si>
+    <t>www.ksk.org.tr</t>
+  </si>
+  <si>
+    <t>000156_120x120.jpg</t>
+  </si>
+  <si>
+    <t>ALSANCAK STADI</t>
+  </si>
+  <si>
+    <t>3619</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>38.437779</t>
+  </si>
+  <si>
+    <t>27.150392</t>
+  </si>
+  <si>
+    <t>Umurbey Mh., 35230 Konak</t>
+  </si>
+  <si>
+    <t>000156_800_600_1.jpg</t>
+  </si>
+  <si>
+    <t>000170_120x120.jpg</t>
+  </si>
+  <si>
+    <t>000170</t>
+  </si>
+  <si>
+    <t>3612</t>
+  </si>
+  <si>
+    <t>KARTALSPOR</t>
+  </si>
+  <si>
+    <t>www.kartalspor.org</t>
+  </si>
+  <si>
+    <t>RADYO SEYMEN KARTAL STADYUMU</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>40.891942</t>
+  </si>
+  <si>
+    <t>29.190909</t>
+  </si>
+  <si>
+    <t>Karlıktepe Mh., 34880</t>
+  </si>
+  <si>
+    <t>89_800_600_1.jpg</t>
+  </si>
+  <si>
+    <t>000070_120x120.jpg</t>
+  </si>
+  <si>
+    <t>000070</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>KAYSERİ ERCİYESSPOR</t>
+  </si>
+  <si>
+    <t>www.erciyesspor.org.tr</t>
+  </si>
+  <si>
+    <t>000111_120x120.jpg</t>
+  </si>
+  <si>
+    <t>000111</t>
+  </si>
+  <si>
+    <t>MANİSASPOR</t>
+  </si>
+  <si>
+    <t>www.manisaspor.org.tr</t>
+  </si>
+  <si>
+    <t>MANİSA 19 MAYIS</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>137_800_600_1.jpg, 137_800_600_2.jpg</t>
+  </si>
+  <si>
+    <t>38.623291</t>
+  </si>
+  <si>
+    <t>27.438579</t>
+  </si>
+  <si>
+    <t>Ahmet Bedevi Mh., 45200</t>
+  </si>
+  <si>
+    <t>000153</t>
+  </si>
+  <si>
+    <t>3595</t>
+  </si>
+  <si>
+    <t>MKE ANKARAGÜCÜ</t>
+  </si>
+  <si>
+    <t>000153_120x120.jpg</t>
+  </si>
+  <si>
+    <t>www.ankaragucu.org.tr</t>
+  </si>
+  <si>
+    <t>000155</t>
+  </si>
+  <si>
+    <t>3597</t>
+  </si>
+  <si>
+    <t>SAMSUNSPOR</t>
+  </si>
+  <si>
+    <t>000155_120x120.jpg</t>
+  </si>
+  <si>
+    <t>www.samsunspor.org.tr</t>
+  </si>
+  <si>
+    <t>SAMSUN</t>
+  </si>
+  <si>
+    <t>SAMSUN 19 MAYIS</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>162_800_600_1.jpg</t>
+  </si>
+  <si>
+    <t>41.269384</t>
+  </si>
+  <si>
+    <t>36.35525</t>
+  </si>
+  <si>
+    <t>Yenimahalle Mh., 55080</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>000030</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Ş.URFASPOR</t>
+  </si>
+  <si>
+    <t>000030_120x120.jpg</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>MALATYA</t>
+  </si>
+  <si>
+    <t>www.sanliurfaspor.org</t>
+  </si>
+  <si>
+    <t>ŞANLIURFA GAP ARENA</t>
+  </si>
+  <si>
+    <t>3869</t>
+  </si>
+  <si>
+    <t>37.147704</t>
+  </si>
+  <si>
+    <t>38.806767</t>
+  </si>
+  <si>
+    <t>3869_800_600_1.jpg</t>
+  </si>
+  <si>
+    <t>Sancaktar Mh., 63000</t>
+  </si>
+  <si>
+    <t>000143</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>TKİ TAVŞANLI LİNYİTSPOR</t>
+  </si>
+  <si>
+    <t>000143_120x120.jpg</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>TAVŞANLI İLÇE</t>
+  </si>
+  <si>
+    <t>5342</t>
+  </si>
+  <si>
+    <t>5343_800_600_1.jpg</t>
+  </si>
+  <si>
+    <t>39.417439</t>
+  </si>
+  <si>
+    <t>29.992138</t>
+  </si>
+  <si>
+    <t>Saray Mh., 43000</t>
+  </si>
+  <si>
+    <t>www.konyaspor.org.tr</t>
+  </si>
+  <si>
+    <t>000158</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>TORKU KONYASPOR</t>
+  </si>
+  <si>
+    <t>000158_120x120.jpg</t>
+  </si>
+  <si>
+    <t>BŞ BLD ATATÜRK</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>473_800_600_1.jpg</t>
+  </si>
+  <si>
+    <t>37.865385</t>
+  </si>
+  <si>
+    <t>32.483264</t>
+  </si>
+  <si>
+    <t>Öğretmen Evleri Mh., 42000</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>www.tavsanlilinyitspor.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,20 +1442,6 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1167,7 +1489,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1207,10 +1529,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1218,6 +1536,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1296,6 +1619,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1330,6 +1654,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1505,14 +1830,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1527,7 +1852,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>238</v>
       </c>
@@ -1562,7 +1887,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>239</v>
       </c>
@@ -1632,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>111</v>
       </c>
@@ -1702,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>240</v>
       </c>
@@ -1737,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>241</v>
       </c>
@@ -1772,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>242</v>
       </c>
@@ -1807,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>243</v>
       </c>
@@ -1842,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>244</v>
       </c>
@@ -1877,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>245</v>
       </c>
@@ -1912,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>93</v>
       </c>
@@ -1947,7 +2272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>246</v>
       </c>
@@ -1982,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>247</v>
       </c>
@@ -2007,7 +2332,9 @@
       <c r="H14" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="J14" s="7">
         <v>7</v>
       </c>
@@ -2015,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>248</v>
       </c>
@@ -2050,7 +2377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>249</v>
       </c>
@@ -2085,7 +2412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
@@ -2120,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>250</v>
       </c>
@@ -2155,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>251</v>
       </c>
@@ -2165,7 +2492,7 @@
       <c r="C19" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>215</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2190,166 +2517,458 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I20" s="20">
+      <c r="I20" s="7">
         <v>14085</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="7">
         <v>1</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" s="2" t="s">
+      <c r="K20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="H21" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="7">
+        <v>8881</v>
+      </c>
+      <c r="J21" s="7">
+        <v>14</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I22" s="7">
+        <v>8810</v>
+      </c>
+      <c r="J22" s="7">
+        <v>35</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="7">
+        <v>15485</v>
+      </c>
+      <c r="J23" s="7">
+        <v>53</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I24" s="7">
+        <v>15427</v>
+      </c>
+      <c r="J24" s="7">
+        <v>20</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I25" s="7">
+        <v>51295</v>
+      </c>
+      <c r="J25" s="7">
+        <v>35</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J26" s="7">
+        <v>35</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" s="7">
+        <v>7195</v>
+      </c>
+      <c r="J27" s="7">
+        <v>34</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I28" s="7">
+        <v>16597</v>
+      </c>
+      <c r="J28" s="7">
+        <v>45</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I29" s="7">
+        <v>16480</v>
+      </c>
+      <c r="J29" s="7">
+        <v>55</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="I30" s="7">
+        <v>28965</v>
+      </c>
+      <c r="J30" s="7">
+        <v>63</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" s="7">
+        <v>43</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I21" s="20">
-        <v>8881</v>
-      </c>
-      <c r="J21" s="3">
-        <v>14</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I22" s="20">
-        <v>8810</v>
-      </c>
-      <c r="J22" s="3">
-        <v>35</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I23" s="20">
-        <v>15485</v>
-      </c>
-      <c r="J23" s="3">
-        <v>53</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I24" s="20">
-        <v>15427</v>
-      </c>
-      <c r="J24" s="3">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="K32" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2360,14 +2979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -2379,7 +2998,7 @@
     <col min="10" max="10" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>237</v>
       </c>
@@ -2411,27 +3030,27 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>213</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>211</v>
@@ -2443,93 +3062,93 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>287</v>
-      </c>
       <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>346</v>
+      <c r="G4" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="G5" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="9">
         <v>14</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -2539,233 +3158,453 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>328</v>
-      </c>
       <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>339</v>
-      </c>
       <c r="I8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2778,21 +3617,38 @@
     <hyperlink ref="D8" r:id="rId7" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=81"/>
     <hyperlink ref="G8" r:id="rId8" display="http://www.denizlispor.org.tr/"/>
     <hyperlink ref="G4" r:id="rId9"/>
+    <hyperlink ref="G9" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3598"/>
+    <hyperlink ref="G11" r:id="rId12" display="http://www.ksk.org.tr/"/>
+    <hyperlink ref="G12" r:id="rId13" display="http://www.kartalspor.org/"/>
+    <hyperlink ref="G13" r:id="rId14" display="http://www.erciyesspor.org.tr/"/>
+    <hyperlink ref="D14" r:id="rId15" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=110"/>
+    <hyperlink ref="G14" r:id="rId16"/>
+    <hyperlink ref="D15" r:id="rId17" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3595"/>
+    <hyperlink ref="G15" r:id="rId18" display="http://www.ankaragucu.org.tr/"/>
+    <hyperlink ref="D16" r:id="rId19" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3597"/>
+    <hyperlink ref="G16" r:id="rId20" display="http://www.samsunspor.org.tr/"/>
+    <hyperlink ref="D17" r:id="rId21" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=31"/>
+    <hyperlink ref="F17" r:id="rId22" display="https://fys.tff.org/TFFUploadFolder/KulupLogolari%5C000030_120x120.jpg"/>
+    <hyperlink ref="G17" r:id="rId23"/>
+    <hyperlink ref="F18" r:id="rId24" display="https://fys.tff.org/TFFUploadFolder/KulupLogolari%5C000030_120x120.jpg"/>
+    <hyperlink ref="G19" r:id="rId25"/>
+    <hyperlink ref="G18" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J19"/>
+      <selection activeCell="I12" sqref="I12:I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -2804,7 +3660,7 @@
     <col min="10" max="10" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>237</v>
       </c>
@@ -2836,7 +3692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2868,7 +3724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2900,7 +3756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2932,7 +3788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2964,7 +3820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2996,7 +3852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3028,7 +3884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3060,7 +3916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3092,7 +3948,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3124,7 +3980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3154,7 +4010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3186,7 +4042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3218,7 +4074,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3250,7 +4106,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3280,7 +4136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3312,7 +4168,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3344,7 +4200,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3376,7 +4232,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3406,6 +4262,582 @@
       </c>
       <c r="J19" s="9" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="9">
+        <v>14</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3440,20 +4872,46 @@
     <hyperlink ref="D19" r:id="rId28" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3596"/>
     <hyperlink ref="G19" r:id="rId29" display="http://www.trabzonspor.org.tr/"/>
     <hyperlink ref="G17" r:id="rId30"/>
+    <hyperlink ref="G20" r:id="rId31" display="http://www.1461trabzon.com.tr/"/>
+    <hyperlink ref="D22" r:id="rId32" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3605"/>
+    <hyperlink ref="D23" r:id="rId33" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3593"/>
+    <hyperlink ref="G23" r:id="rId34"/>
+    <hyperlink ref="G24" r:id="rId35" display="http://www.bucaspor.org.tr/"/>
+    <hyperlink ref="G25" r:id="rId36" display="http://www.caykurrizespor.org.tr/"/>
+    <hyperlink ref="D26" r:id="rId37" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=81"/>
+    <hyperlink ref="G26" r:id="rId38" display="http://www.denizlispor.org.tr/"/>
+    <hyperlink ref="G22" r:id="rId39"/>
+    <hyperlink ref="G27" r:id="rId40"/>
+    <hyperlink ref="D29" r:id="rId41" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3598"/>
+    <hyperlink ref="G29" r:id="rId42" display="http://www.ksk.org.tr/"/>
+    <hyperlink ref="G30" r:id="rId43" display="http://www.kartalspor.org/"/>
+    <hyperlink ref="G31" r:id="rId44" display="http://www.erciyesspor.org.tr/"/>
+    <hyperlink ref="D32" r:id="rId45" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=110"/>
+    <hyperlink ref="G32" r:id="rId46"/>
+    <hyperlink ref="D33" r:id="rId47" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3595"/>
+    <hyperlink ref="G33" r:id="rId48" display="http://www.ankaragucu.org.tr/"/>
+    <hyperlink ref="D34" r:id="rId49" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3597"/>
+    <hyperlink ref="G34" r:id="rId50" display="http://www.samsunspor.org.tr/"/>
+    <hyperlink ref="D35" r:id="rId51" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=31"/>
+    <hyperlink ref="F35" r:id="rId52" display="https://fys.tff.org/TFFUploadFolder/KulupLogolari%5C000030_120x120.jpg"/>
+    <hyperlink ref="G35" r:id="rId53"/>
+    <hyperlink ref="F36" r:id="rId54" display="https://fys.tff.org/TFFUploadFolder/KulupLogolari%5C000030_120x120.jpg"/>
+    <hyperlink ref="G37" r:id="rId55"/>
+    <hyperlink ref="G36" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:W18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17:W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3468,12 +4926,12 @@
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="17" customFormat="1">
+    <row r="1" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>8</v>
+      <c r="B1" s="11">
+        <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>270</v>
@@ -3518,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>29</v>
@@ -3526,25 +4984,25 @@
       <c r="S1" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T1" s="16">
-        <v>45</v>
+      <c r="T1" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="U1" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="17" customFormat="1">
+    <row r="2" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>239</v>
+      <c r="B2" s="11">
+        <v>2</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>270</v>
@@ -3589,7 +5047,7 @@
         <v>16</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>49</v>
@@ -3597,25 +5055,25 @@
       <c r="S2" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T2" s="16">
-        <v>34</v>
+      <c r="T2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="U2" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W2" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="17" customFormat="1">
+    <row r="3" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>37</v>
+      <c r="B3" s="11">
+        <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>270</v>
@@ -3660,7 +5118,7 @@
         <v>27</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>41</v>
@@ -3668,25 +5126,25 @@
       <c r="S3" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T3" s="16">
-        <v>16</v>
+      <c r="T3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="U3" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W3" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="17" customFormat="1">
+    <row r="4" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>111</v>
+      <c r="B4" s="11">
+        <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>270</v>
@@ -3731,7 +5189,7 @@
         <v>39</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>41</v>
@@ -3739,25 +5197,25 @@
       <c r="S4" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T4" s="16">
-        <v>26</v>
+      <c r="T4" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="U4" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W4" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="17" customFormat="1">
+    <row r="5" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>240</v>
+      <c r="B5" s="11">
+        <v>5</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>270</v>
@@ -3802,7 +5260,7 @@
         <v>54</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>49</v>
@@ -3810,25 +5268,25 @@
       <c r="S5" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T5" s="16">
-        <v>34</v>
+      <c r="T5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="U5" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W5" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="17" customFormat="1">
+    <row r="6" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>241</v>
+      <c r="B6" s="11">
+        <v>6</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>270</v>
@@ -3873,7 +5331,7 @@
         <v>65</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>49</v>
@@ -3881,25 +5339,25 @@
       <c r="S6" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T6" s="16">
-        <v>34</v>
+      <c r="T6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="U6" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="17" customFormat="1">
+    <row r="7" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>242</v>
+      <c r="B7" s="11">
+        <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>270</v>
@@ -3944,7 +5402,7 @@
         <v>76</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>78</v>
@@ -3952,25 +5410,25 @@
       <c r="S7" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T7" s="16">
-        <v>27</v>
+      <c r="T7" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="U7" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W7" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1">
+    <row r="8" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>243</v>
+      <c r="B8" s="11">
+        <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>270</v>
@@ -4015,7 +5473,7 @@
         <v>89</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>91</v>
@@ -4023,25 +5481,25 @@
       <c r="S8" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T8" s="16">
-        <v>6</v>
+      <c r="T8" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="U8" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1">
+    <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>244</v>
+      <c r="B9" s="11">
+        <v>9</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>270</v>
@@ -4086,7 +5544,7 @@
         <v>101</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>49</v>
@@ -4094,25 +5552,25 @@
       <c r="S9" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T9" s="16">
-        <v>34</v>
+      <c r="T9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="U9" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1">
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>245</v>
+      <c r="B10" s="11">
+        <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>270</v>
@@ -4153,11 +5611,9 @@
       <c r="O10" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>277</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>91</v>
@@ -4165,25 +5621,25 @@
       <c r="S10" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T10" s="16">
-        <v>78</v>
+      <c r="T10" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="U10" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1">
+    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>93</v>
+      <c r="B11" s="11">
+        <v>11</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>270</v>
@@ -4228,7 +5684,7 @@
         <v>124</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>49</v>
@@ -4236,25 +5692,25 @@
       <c r="S11" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T11" s="16">
-        <v>34</v>
+      <c r="T11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="U11" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W11" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1">
+    <row r="12" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>246</v>
+      <c r="B12" s="11">
+        <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>270</v>
@@ -4299,7 +5755,7 @@
         <v>137</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>139</v>
@@ -4307,25 +5763,25 @@
       <c r="S12" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T12" s="16">
-        <v>38</v>
+      <c r="T12" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="U12" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W12" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1">
+    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>247</v>
+      <c r="B13" s="11">
+        <v>13</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>270</v>
@@ -4370,7 +5826,7 @@
         <v>150</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>152</v>
@@ -4378,25 +5834,25 @@
       <c r="S13" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T13" s="16">
-        <v>7</v>
+      <c r="T13" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="U13" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="V13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1">
+    <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>248</v>
+      <c r="B14" s="11">
+        <v>14</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>270</v>
@@ -4437,11 +5893,9 @@
       <c r="O14" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="11"/>
+      <c r="Q14" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>277</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>78</v>
@@ -4449,25 +5903,25 @@
       <c r="S14" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T14" s="16">
-        <v>33</v>
+      <c r="T14" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="U14" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W14" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1">
+    <row r="15" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>249</v>
+      <c r="B15" s="11">
+        <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>270</v>
@@ -4512,7 +5966,7 @@
         <v>175</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>174</v>
@@ -4520,25 +5974,25 @@
       <c r="S15" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T15" s="16">
-        <v>52</v>
+      <c r="T15" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="U15" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="V15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W15" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1">
+    <row r="16" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>28</v>
+      <c r="B16" s="11">
+        <v>16</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>270</v>
@@ -4583,7 +6037,7 @@
         <v>220</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>174</v>
@@ -4591,25 +6045,25 @@
       <c r="S16" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T16" s="16">
-        <v>23</v>
+      <c r="T16" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="U16" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="17" customFormat="1">
+    <row r="17" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>250</v>
+      <c r="B17" s="11">
+        <v>17</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>270</v>
@@ -4654,7 +6108,7 @@
         <v>198</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>139</v>
@@ -4662,25 +6116,25 @@
       <c r="S17" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T17" s="16">
-        <v>58</v>
+      <c r="T17" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="U17" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="17" customFormat="1">
+    <row r="18" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>251</v>
+      <c r="B18" s="11">
+        <v>18</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>270</v>
@@ -4725,7 +6179,7 @@
         <v>210</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>174</v>
@@ -4733,16 +6187,1294 @@
       <c r="S18" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T18" s="16">
-        <v>61</v>
+      <c r="T18" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="U18" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W18" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="11">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="11">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="11">
+        <v>21</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="11">
+        <v>22</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T22" s="9">
+        <v>14</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="11">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="11">
+        <v>24</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="11">
+        <v>25</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="11">
+        <v>26</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="11">
+        <v>27</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="11">
+        <v>28</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="11">
+        <v>29</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="11">
+        <v>30</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W30" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="11">
+        <v>31</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="11">
+        <v>32</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="11">
+        <v>33</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="11">
+        <v>34</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W34" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="11">
+        <v>35</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="11">
+        <v>36</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W36" s="18" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4763,40 +7495,66 @@
     <hyperlink ref="H16" r:id="rId13" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=37"/>
     <hyperlink ref="H17" r:id="rId14" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=74"/>
     <hyperlink ref="H18" r:id="rId15" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3596"/>
-    <hyperlink ref="P2" r:id="rId16" display="http://www.bjk.com.tr/"/>
-    <hyperlink ref="P3" r:id="rId17" display="http://www.bursaspor.org/"/>
-    <hyperlink ref="P4" r:id="rId18" display="http://www.eskisehirspor.org/"/>
-    <hyperlink ref="P5" r:id="rId19" display="http://www.fenerbahce.org/"/>
-    <hyperlink ref="P6" r:id="rId20" display="http://www.galatasaray.org/"/>
-    <hyperlink ref="P7" r:id="rId21" display="http://www.gaziantepspor.org.tr/"/>
-    <hyperlink ref="P8" r:id="rId22" display="http://www.genclerbirligi.org.tr/"/>
-    <hyperlink ref="P9" r:id="rId23" display="http://www.istanbulbbsk.org/"/>
-    <hyperlink ref="P11" r:id="rId24" display="http://www.kasimpasaspor.org.tr/"/>
-    <hyperlink ref="P12" r:id="rId25" display="http://www.kayserispor.org.tr/"/>
-    <hyperlink ref="P13" r:id="rId26" display="http://www.antalyaspor.com.tr/"/>
-    <hyperlink ref="P15" r:id="rId27" display="http://www.orduspor.org.tr/"/>
-    <hyperlink ref="P17" r:id="rId28" display="http://www.sivasspor.org.tr/"/>
-    <hyperlink ref="P18" r:id="rId29" display="http://www.trabzonspor.org.tr/"/>
-    <hyperlink ref="P16" r:id="rId30"/>
+    <hyperlink ref="H21" r:id="rId16" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3605"/>
+    <hyperlink ref="H22" r:id="rId17" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3593"/>
+    <hyperlink ref="H25" r:id="rId18" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=81"/>
+    <hyperlink ref="H28" r:id="rId19" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3598"/>
+    <hyperlink ref="H31" r:id="rId20" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=110"/>
+    <hyperlink ref="H32" r:id="rId21" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3595"/>
+    <hyperlink ref="H33" r:id="rId22" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=3597"/>
+    <hyperlink ref="H34" r:id="rId23" display="http://www.tff.org/Default.aspx?pageId=28&amp;kulupId=31"/>
+    <hyperlink ref="L34" r:id="rId24" display="https://fys.tff.org/TFFUploadFolder/KulupLogolari%5C000030_120x120.jpg"/>
+    <hyperlink ref="L35" r:id="rId25" display="https://fys.tff.org/TFFUploadFolder/KulupLogolari%5C000030_120x120.jpg"/>
+    <hyperlink ref="P2" r:id="rId26" display="http://www.bjk.com.tr/"/>
+    <hyperlink ref="P3" r:id="rId27" display="http://www.bursaspor.org/"/>
+    <hyperlink ref="P4" r:id="rId28" display="http://www.eskisehirspor.org/"/>
+    <hyperlink ref="P5" r:id="rId29" display="http://www.fenerbahce.org/"/>
+    <hyperlink ref="P6" r:id="rId30" display="http://www.galatasaray.org/"/>
+    <hyperlink ref="P7" r:id="rId31" display="http://www.gaziantepspor.org.tr/"/>
+    <hyperlink ref="P8" r:id="rId32" display="http://www.genclerbirligi.org.tr/"/>
+    <hyperlink ref="P9" r:id="rId33" display="http://www.istanbulbbsk.org/"/>
+    <hyperlink ref="P11" r:id="rId34" display="http://www.kasimpasaspor.org.tr/"/>
+    <hyperlink ref="P12" r:id="rId35" display="http://www.kayserispor.org.tr/"/>
+    <hyperlink ref="P13" r:id="rId36" display="http://www.antalyaspor.com.tr/"/>
+    <hyperlink ref="P15" r:id="rId37" display="http://www.orduspor.org.tr/"/>
+    <hyperlink ref="P17" r:id="rId38" display="http://www.sivasspor.org.tr/"/>
+    <hyperlink ref="P18" r:id="rId39" display="http://www.trabzonspor.org.tr/"/>
+    <hyperlink ref="P16" r:id="rId40"/>
+    <hyperlink ref="P19" r:id="rId41" display="http://www.1461trabzon.com.tr/"/>
+    <hyperlink ref="P22" r:id="rId42"/>
+    <hyperlink ref="P23" r:id="rId43" display="http://www.bucaspor.org.tr/"/>
+    <hyperlink ref="P24" r:id="rId44" display="http://www.caykurrizespor.org.tr/"/>
+    <hyperlink ref="P25" r:id="rId45" display="http://www.denizlispor.org.tr/"/>
+    <hyperlink ref="P21" r:id="rId46"/>
+    <hyperlink ref="P26" r:id="rId47"/>
+    <hyperlink ref="P28" r:id="rId48" display="http://www.ksk.org.tr/"/>
+    <hyperlink ref="P29" r:id="rId49" display="http://www.kartalspor.org/"/>
+    <hyperlink ref="P30" r:id="rId50" display="http://www.erciyesspor.org.tr/"/>
+    <hyperlink ref="P31" r:id="rId51"/>
+    <hyperlink ref="P32" r:id="rId52" display="http://www.ankaragucu.org.tr/"/>
+    <hyperlink ref="P33" r:id="rId53" display="http://www.samsunspor.org.tr/"/>
+    <hyperlink ref="P34" r:id="rId54"/>
+    <hyperlink ref="P36" r:id="rId55"/>
+    <hyperlink ref="P35" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4804,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -4812,7 +7570,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -4826,19 +7584,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4846,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -4854,7 +7612,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -4868,14 +7626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W18"/>
+      <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -4888,29 +7646,29 @@
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="17" customFormat="1">
+    <row r="1" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I1" s="15" t="s">
@@ -4922,31 +7680,31 @@
       <c r="K1" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="5" t="s">
         <v>131</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R1" s="16">
+      <c r="R1" s="7">
         <v>2918</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T1" s="16">
+      <c r="T1" s="7">
         <v>45</v>
       </c>
       <c r="U1" s="16" t="s">
@@ -4959,29 +7717,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="17" customFormat="1">
+    <row r="2" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>239</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -4993,31 +7751,31 @@
       <c r="K2" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="7">
         <v>32086</v>
       </c>
       <c r="S2" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="7">
         <v>34</v>
       </c>
       <c r="U2" s="16" t="s">
@@ -5030,29 +7788,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="17" customFormat="1">
+    <row r="3" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="15" t="s">
@@ -5064,31 +7822,31 @@
       <c r="K3" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="5" t="s">
         <v>182</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="7">
         <v>25661</v>
       </c>
       <c r="S3" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="7">
         <v>16</v>
       </c>
       <c r="U3" s="16" t="s">
@@ -5101,29 +7859,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="17" customFormat="1">
+    <row r="4" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="15" t="s">
@@ -5135,31 +7893,31 @@
       <c r="K4" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q4" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="7">
         <v>13520</v>
       </c>
       <c r="S4" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="7">
         <v>26</v>
       </c>
       <c r="U4" s="16" t="s">
@@ -5172,29 +7930,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="17" customFormat="1">
+    <row r="5" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>240</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -5206,31 +7964,31 @@
       <c r="K5" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="5" t="s">
         <v>59</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="7">
         <v>50509</v>
       </c>
       <c r="S5" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="7">
         <v>34</v>
       </c>
       <c r="U5" s="16" t="s">
@@ -5243,29 +8001,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="17" customFormat="1">
+    <row r="6" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>241</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I6" s="15" t="s">
@@ -5277,31 +8035,31 @@
       <c r="K6" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="5" t="s">
         <v>68</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="5" t="s">
         <v>71</v>
       </c>
       <c r="Q6" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="7">
         <v>52600</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="7">
         <v>34</v>
       </c>
       <c r="U6" s="16" t="s">
@@ -5314,29 +8072,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="17" customFormat="1">
+    <row r="7" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="7" t="s">
         <v>84</v>
       </c>
       <c r="I7" s="15" t="s">
@@ -5348,31 +8106,31 @@
       <c r="K7" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="5" t="s">
         <v>82</v>
       </c>
       <c r="Q7" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="7">
         <v>16981</v>
       </c>
       <c r="S7" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="7">
         <v>27</v>
       </c>
       <c r="U7" s="16" t="s">
@@ -5385,29 +8143,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1">
+    <row r="8" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I8" s="15" t="s">
@@ -5419,31 +8177,31 @@
       <c r="K8" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="5" t="s">
         <v>94</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="5" t="s">
         <v>97</v>
       </c>
       <c r="Q8" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="7">
         <v>19209</v>
       </c>
       <c r="S8" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="7">
         <v>6</v>
       </c>
       <c r="U8" s="16" t="s">
@@ -5456,29 +8214,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1">
+    <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>244</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="7" t="s">
         <v>105</v>
       </c>
       <c r="I9" s="15" t="s">
@@ -5490,31 +8248,31 @@
       <c r="K9" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="5" t="s">
         <v>108</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="5" t="s">
         <v>106</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="5" t="s">
         <v>107</v>
       </c>
       <c r="Q9" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="7">
         <v>76092</v>
       </c>
       <c r="S9" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="7">
         <v>34</v>
       </c>
       <c r="U9" s="16" t="s">
@@ -5527,29 +8285,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1">
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>245</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I10" s="15" t="s">
@@ -5561,31 +8319,31 @@
       <c r="K10" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="5" t="s">
         <v>132</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="5" t="s">
         <v>117</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="5" t="s">
         <v>118</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="5" t="s">
         <v>116</v>
       </c>
       <c r="S10" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="7">
         <v>78</v>
       </c>
       <c r="U10" s="16" t="s">
@@ -5598,29 +8356,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1">
+    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="7" t="s">
         <v>125</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I11" s="15" t="s">
@@ -5632,31 +8390,31 @@
       <c r="K11" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="5" t="s">
         <v>130</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="5" t="s">
         <v>128</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="5" t="s">
         <v>129</v>
       </c>
       <c r="Q11" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="7">
         <v>14234</v>
       </c>
       <c r="S11" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="7">
         <v>34</v>
       </c>
       <c r="U11" s="16" t="s">
@@ -5669,29 +8427,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1">
+    <row r="12" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>246</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="7" t="s">
         <v>142</v>
       </c>
       <c r="I12" s="15" t="s">
@@ -5703,31 +8461,31 @@
       <c r="K12" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="5" t="s">
         <v>145</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="5" t="s">
         <v>143</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="5" t="s">
         <v>144</v>
       </c>
       <c r="Q12" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="7">
         <v>32864</v>
       </c>
       <c r="S12" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="7">
         <v>38</v>
       </c>
       <c r="U12" s="16" t="s">
@@ -5740,29 +8498,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1">
+    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="5" t="s">
         <v>154</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="7" t="s">
         <v>158</v>
       </c>
       <c r="I13" s="15" t="s">
@@ -5774,31 +8532,31 @@
       <c r="K13" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="5" t="s">
         <v>157</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="5" t="s">
         <v>155</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="5" t="s">
         <v>156</v>
       </c>
       <c r="Q13" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="5" t="s">
         <v>263</v>
       </c>
       <c r="S13" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="7">
         <v>7</v>
       </c>
       <c r="U13" s="16" t="s">
@@ -5811,29 +8569,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1">
+    <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>248</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="5" t="s">
         <v>165</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="7" t="s">
         <v>167</v>
       </c>
       <c r="I14" s="15" t="s">
@@ -5845,31 +8603,31 @@
       <c r="K14" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="5" t="s">
         <v>166</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="5" t="s">
         <v>168</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="5" t="s">
         <v>169</v>
       </c>
       <c r="Q14" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="7">
         <v>10128</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="7">
         <v>33</v>
       </c>
       <c r="U14" s="16" t="s">
@@ -5882,29 +8640,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1">
+    <row r="15" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>249</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="5" t="s">
         <v>176</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="7" t="s">
         <v>181</v>
       </c>
       <c r="I15" s="15" t="s">
@@ -5916,31 +8674,31 @@
       <c r="K15" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="5" t="s">
         <v>180</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="5" t="s">
         <v>178</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="5" t="s">
         <v>179</v>
       </c>
       <c r="Q15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="7">
         <v>11024</v>
       </c>
       <c r="S15" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="7">
         <v>52</v>
       </c>
       <c r="U15" s="16" t="s">
@@ -5953,29 +8711,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1">
+    <row r="16" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="5" t="s">
         <v>188</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I16" s="15" t="s">
@@ -5987,31 +8745,31 @@
       <c r="K16" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="5" t="s">
         <v>190</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="5" t="s">
         <v>192</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="5" t="s">
         <v>193</v>
       </c>
       <c r="Q16" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="7">
         <v>13923</v>
       </c>
       <c r="S16" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="7">
         <v>23</v>
       </c>
       <c r="U16" s="16" t="s">
@@ -6024,29 +8782,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="17" customFormat="1">
+    <row r="17" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="7" t="s">
         <v>203</v>
       </c>
       <c r="I17" s="15" t="s">
@@ -6058,31 +8816,31 @@
       <c r="K17" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="5" t="s">
         <v>202</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="5" t="s">
         <v>204</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="5" t="s">
         <v>205</v>
       </c>
       <c r="Q17" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="7">
         <v>14998</v>
       </c>
       <c r="S17" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="7">
         <v>58</v>
       </c>
       <c r="U17" s="16" t="s">
@@ -6095,29 +8853,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="17" customFormat="1">
+    <row r="18" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>251</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="5" t="s">
         <v>213</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="5" t="s">
         <v>212</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="6" t="s">
         <v>215</v>
       </c>
       <c r="I18" s="15" t="s">
@@ -6129,31 +8887,31 @@
       <c r="K18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="5" t="s">
         <v>214</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="5" t="s">
         <v>216</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="5" t="s">
         <v>217</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="7">
         <v>24169</v>
       </c>
       <c r="S18" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="7">
         <v>61</v>
       </c>
       <c r="U18" s="16" t="s">
@@ -6163,6 +8921,929 @@
         <v>5</v>
       </c>
       <c r="W18" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R19" s="7">
+        <v>14085</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R20" s="7">
+        <v>8881</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T20" s="7">
+        <v>14</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R21" s="7">
+        <v>8810</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T21" s="7">
+        <v>35</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R22" s="7">
+        <v>15485</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T22" s="7">
+        <v>53</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R23" s="7">
+        <v>15427</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T23" s="7">
+        <v>20</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R24" s="7">
+        <v>51295</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T24" s="7">
+        <v>35</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T25" s="7">
+        <v>35</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R26" s="7">
+        <v>7195</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T26" s="7">
+        <v>34</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R27" s="7">
+        <v>16597</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T27" s="7">
+        <v>45</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R28" s="7">
+        <v>16480</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T28" s="7">
+        <v>55</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R29" s="7">
+        <v>28965</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T29" s="7">
+        <v>63</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T30" s="7">
+        <v>43</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W30" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W31" s="18" t="s">
         <v>266</v>
       </c>
     </row>

--- a/doc/TFFSportsData.xlsx
+++ b/doc/TFFSportsData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19020" windowHeight="8325" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19020" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="460">
   <si>
     <t>Name</t>
   </si>
@@ -1397,13 +1397,16 @@
   </si>
   <si>
     <t>www.tavsanlilinyitspor.com</t>
+  </si>
+  <si>
+    <t>TWITTER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1458,7 +1461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1481,6 +1484,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1489,7 +1503,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1527,6 +1541,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1619,7 +1636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1654,7 +1670,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1830,14 +1845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1852,7 +1867,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>238</v>
       </c>
@@ -1887,7 +1902,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>239</v>
       </c>
@@ -1957,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>111</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>240</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>241</v>
       </c>
@@ -2097,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>242</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>243</v>
       </c>
@@ -2167,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>244</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
         <v>245</v>
       </c>
@@ -2237,7 +2252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
         <v>93</v>
       </c>
@@ -2272,7 +2287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>246</v>
       </c>
@@ -2307,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="12" t="s">
         <v>247</v>
       </c>
@@ -2342,7 +2357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="12" t="s">
         <v>248</v>
       </c>
@@ -2377,7 +2392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="12" t="s">
         <v>249</v>
       </c>
@@ -2412,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
@@ -2447,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="12" t="s">
         <v>250</v>
       </c>
@@ -2482,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="12" t="s">
         <v>251</v>
       </c>
@@ -2517,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="12" t="s">
         <v>289</v>
       </c>
@@ -2552,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="12" t="s">
         <v>338</v>
       </c>
@@ -2587,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="12" t="s">
         <v>361</v>
       </c>
@@ -2622,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="12" t="s">
         <v>362</v>
       </c>
@@ -2657,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="12" t="s">
         <v>187</v>
       </c>
@@ -2692,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="12" t="s">
         <v>363</v>
       </c>
@@ -2727,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="12" t="s">
         <v>419</v>
       </c>
@@ -2762,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="12" t="s">
         <v>40</v>
       </c>
@@ -2797,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="18" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>77</v>
       </c>
@@ -2832,7 +2847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
         <v>420</v>
       </c>
@@ -2867,7 +2882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="12" t="s">
         <v>456</v>
       </c>
@@ -2902,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="12" t="s">
         <v>457</v>
       </c>
@@ -2937,7 +2952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
         <v>422</v>
       </c>
@@ -2979,14 +2994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -2998,7 +3013,7 @@
     <col min="10" max="10" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>237</v>
       </c>
@@ -3029,8 +3044,11 @@
       <c r="J1" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3062,7 +3080,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3126,7 +3144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3158,7 +3176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3190,7 +3208,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3222,7 +3240,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3254,7 +3272,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3286,7 +3304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3318,7 +3336,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3350,7 +3368,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3382,7 +3400,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3414,7 +3432,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3446,7 +3464,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3510,7 +3528,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3542,7 +3560,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3574,7 +3592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3641,14 +3659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I37"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -3660,7 +3678,7 @@
     <col min="10" max="10" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>237</v>
       </c>
@@ -3692,7 +3710,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3724,7 +3742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3756,7 +3774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3788,7 +3806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3820,7 +3838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3852,7 +3870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3948,7 +3966,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3980,7 +3998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4010,7 +4028,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -4042,7 +4060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4074,7 +4092,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4106,7 +4124,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4136,7 +4154,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -4200,7 +4218,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -4232,7 +4250,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -4264,7 +4282,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -4296,7 +4314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -4328,7 +4346,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -4360,7 +4378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -4392,7 +4410,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -4424,7 +4442,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4456,7 +4474,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4488,7 +4506,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4520,7 +4538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4552,7 +4570,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4584,7 +4602,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4616,7 +4634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4648,7 +4666,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -4680,7 +4698,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -4712,7 +4730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -4744,7 +4762,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -4776,7 +4794,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -4808,7 +4826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -4904,14 +4922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="W17" sqref="W17:W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -4926,7 +4944,7 @@
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="17" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>269</v>
       </c>
@@ -4997,7 +5015,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="17" customFormat="1">
       <c r="A2" s="17" t="s">
         <v>269</v>
       </c>
@@ -5068,7 +5086,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="17" customFormat="1">
       <c r="A3" s="17" t="s">
         <v>269</v>
       </c>
@@ -5139,7 +5157,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="17" customFormat="1">
       <c r="A4" s="17" t="s">
         <v>269</v>
       </c>
@@ -5210,7 +5228,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="17" customFormat="1">
       <c r="A5" s="17" t="s">
         <v>269</v>
       </c>
@@ -5281,7 +5299,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="17" customFormat="1">
       <c r="A6" s="17" t="s">
         <v>269</v>
       </c>
@@ -5352,7 +5370,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="17" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>269</v>
       </c>
@@ -5423,7 +5441,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
         <v>269</v>
       </c>
@@ -5494,7 +5512,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="17" customFormat="1">
       <c r="A9" s="17" t="s">
         <v>269</v>
       </c>
@@ -5565,7 +5583,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="17" customFormat="1">
       <c r="A10" s="17" t="s">
         <v>269</v>
       </c>
@@ -5634,7 +5652,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="17" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>269</v>
       </c>
@@ -5705,7 +5723,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="17" customFormat="1">
       <c r="A12" s="17" t="s">
         <v>269</v>
       </c>
@@ -5776,7 +5794,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="17" customFormat="1">
       <c r="A13" s="17" t="s">
         <v>269</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="17" customFormat="1">
       <c r="A14" s="17" t="s">
         <v>269</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="17" customFormat="1">
       <c r="A15" s="17" t="s">
         <v>269</v>
       </c>
@@ -5987,7 +6005,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="17" customFormat="1">
       <c r="A16" s="17" t="s">
         <v>269</v>
       </c>
@@ -6058,7 +6076,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="17" customFormat="1">
       <c r="A17" s="17" t="s">
         <v>269</v>
       </c>
@@ -6129,7 +6147,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="17" customFormat="1">
       <c r="A18" s="17" t="s">
         <v>269</v>
       </c>
@@ -6200,7 +6218,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="17" t="s">
         <v>269</v>
       </c>
@@ -6271,7 +6289,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="17" t="s">
         <v>269</v>
       </c>
@@ -6342,7 +6360,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="17" t="s">
         <v>269</v>
       </c>
@@ -6413,7 +6431,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="17" t="s">
         <v>269</v>
       </c>
@@ -6484,7 +6502,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="17" t="s">
         <v>269</v>
       </c>
@@ -6555,7 +6573,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="17" t="s">
         <v>269</v>
       </c>
@@ -6626,7 +6644,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="17" t="s">
         <v>269</v>
       </c>
@@ -6697,7 +6715,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="17" t="s">
         <v>269</v>
       </c>
@@ -6768,7 +6786,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="17" t="s">
         <v>269</v>
       </c>
@@ -6839,7 +6857,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="17" t="s">
         <v>269</v>
       </c>
@@ -6910,7 +6928,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="17" t="s">
         <v>269</v>
       </c>
@@ -6981,7 +6999,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="17" t="s">
         <v>269</v>
       </c>
@@ -7052,7 +7070,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="17" t="s">
         <v>269</v>
       </c>
@@ -7123,7 +7141,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="17" t="s">
         <v>269</v>
       </c>
@@ -7194,7 +7212,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="17" t="s">
         <v>269</v>
       </c>
@@ -7265,7 +7283,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="17" t="s">
         <v>269</v>
       </c>
@@ -7336,7 +7354,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="17" t="s">
         <v>269</v>
       </c>
@@ -7407,7 +7425,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36" s="17" t="s">
         <v>269</v>
       </c>
@@ -7542,19 +7560,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
@@ -7562,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7570,7 +7588,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -7584,19 +7602,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
@@ -7604,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7612,7 +7630,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -7626,14 +7644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -7646,7 +7664,7 @@
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="17" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>267</v>
       </c>
@@ -7717,7 +7735,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="17" customFormat="1">
       <c r="A2" s="17" t="s">
         <v>267</v>
       </c>
@@ -7788,7 +7806,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="17" customFormat="1">
       <c r="A3" s="17" t="s">
         <v>267</v>
       </c>
@@ -7859,7 +7877,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="17" customFormat="1">
       <c r="A4" s="17" t="s">
         <v>267</v>
       </c>
@@ -7930,7 +7948,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="17" customFormat="1">
       <c r="A5" s="17" t="s">
         <v>267</v>
       </c>
@@ -8001,7 +8019,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="17" customFormat="1">
       <c r="A6" s="17" t="s">
         <v>267</v>
       </c>
@@ -8072,7 +8090,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="17" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>267</v>
       </c>
@@ -8143,7 +8161,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
         <v>267</v>
       </c>
@@ -8214,7 +8232,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="17" customFormat="1">
       <c r="A9" s="17" t="s">
         <v>267</v>
       </c>
@@ -8285,7 +8303,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="17" customFormat="1">
       <c r="A10" s="17" t="s">
         <v>267</v>
       </c>
@@ -8356,7 +8374,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="17" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>267</v>
       </c>
@@ -8427,7 +8445,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="17" customFormat="1">
       <c r="A12" s="17" t="s">
         <v>267</v>
       </c>
@@ -8498,7 +8516,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="17" customFormat="1">
       <c r="A13" s="17" t="s">
         <v>267</v>
       </c>
@@ -8569,7 +8587,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="17" customFormat="1">
       <c r="A14" s="17" t="s">
         <v>267</v>
       </c>
@@ -8640,7 +8658,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="17" customFormat="1">
       <c r="A15" s="17" t="s">
         <v>267</v>
       </c>
@@ -8711,7 +8729,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="17" customFormat="1">
       <c r="A16" s="17" t="s">
         <v>267</v>
       </c>
@@ -8782,7 +8800,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="17" customFormat="1">
       <c r="A17" s="17" t="s">
         <v>267</v>
       </c>
@@ -8853,7 +8871,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="17" customFormat="1">
       <c r="A18" s="17" t="s">
         <v>267</v>
       </c>
@@ -8924,7 +8942,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="17" t="s">
         <v>267</v>
       </c>
@@ -8995,7 +9013,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="17" t="s">
         <v>267</v>
       </c>
@@ -9066,7 +9084,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="17" t="s">
         <v>267</v>
       </c>
@@ -9137,7 +9155,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="17" t="s">
         <v>267</v>
       </c>
@@ -9208,7 +9226,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="17" t="s">
         <v>267</v>
       </c>
@@ -9279,7 +9297,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="17" t="s">
         <v>267</v>
       </c>
@@ -9350,7 +9368,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="17" t="s">
         <v>267</v>
       </c>
@@ -9421,7 +9439,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="17" t="s">
         <v>267</v>
       </c>
@@ -9492,7 +9510,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="17" t="s">
         <v>267</v>
       </c>
@@ -9563,7 +9581,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="17" t="s">
         <v>267</v>
       </c>
@@ -9634,7 +9652,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="17" t="s">
         <v>267</v>
       </c>
@@ -9705,7 +9723,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="17" t="s">
         <v>267</v>
       </c>
@@ -9776,7 +9794,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="17" t="s">
         <v>267</v>
       </c>
